--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004890.20120588</v>
+        <v>2002555.0900039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9948739.094241953</v>
+        <v>9948739.094241954</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>380.8440225948988</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431398</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>78.19477736101119</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>250.3642731739567</v>
+        <v>328.4528833267074</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.30660220273212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460094</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358586</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>179.9490541529292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058545</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376919</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>180.1131616945793</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>240.5320234084492</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>104.1233804225868</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>33.66638448560004</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583173</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085811915</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746485</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4395,19 +4395,19 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4422,13 +4422,13 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080694</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.7113734044287</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="C4" t="n">
-        <v>662.7751904765219</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1557.461496477516</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1302.777008271629</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.359838234668</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.359838234668</v>
+        <v>530.7089073188006</v>
       </c>
       <c r="Y4" t="n">
-        <v>1013.359838234668</v>
+        <v>530.7089073188006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360222</v>
+        <v>1545.062936918767</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.637639419811</v>
+        <v>1176.100419978355</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>1545.062936918767</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400156</v>
+        <v>1545.062936918767</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424344</v>
+        <v>1545.062936918767</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,34 +4641,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380235</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694952</v>
+        <v>932.4978103101005</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425661</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2262.298126874725</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,7 +4744,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
         <v>1533.86271359008</v>
@@ -4756,19 +4756,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.255484944676</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1114.255484944676</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392149</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>545.8624381900114</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1887.813801820607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>734.6461798835909</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U13" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V13" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W13" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138306</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.6905094135296</v>
+        <v>916.2946447138306</v>
       </c>
     </row>
     <row r="14">
@@ -5282,19 +5282,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792907</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.499440703994</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703778</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969299</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400758</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121689</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121689</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121689</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121689</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270488</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138456</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703155</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,13 +6212,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,43 +6944,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>741.8431516380926</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400703</v>
+        <v>741.8431516380926</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257569</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433638</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433638</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>923.4916164683324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,7 +7181,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601775</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878358</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019031</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4.64001879209704e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426093598</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.65245098079498</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392193772</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092683</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600932</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762036</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196664</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196669</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26326,34 +26326,34 @@
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819058</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551151</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744244</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744302</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744284</v>
@@ -26442,22 +26442,22 @@
         <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744342</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744317</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26485,7 +26485,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768482.4540877485</v>
+        <v>-768482.4540877489</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.3294881706</v>
+        <v>346269.32948817</v>
       </c>
       <c r="D6" t="n">
-        <v>186253.8667401718</v>
+        <v>186253.8667401719</v>
       </c>
       <c r="E6" t="n">
-        <v>129740.371759998</v>
+        <v>129705.633834563</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.8335673527</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="J6" t="n">
-        <v>287547.6557573709</v>
+        <v>287512.9178319348</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419175</v>
       </c>
       <c r="L6" t="n">
-        <v>406858.8635591625</v>
+        <v>406824.1256337269</v>
       </c>
       <c r="M6" t="n">
-        <v>370097.8056318414</v>
+        <v>370063.0677064058</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673534</v>
+        <v>455118.0956419174</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>26.03202314681266</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.0865537016644</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>208.0323767601894</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.3187684467262</v>
+        <v>26.23015829397559</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5253779792052</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751912</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762196</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>230.9726715005242</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558739</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-8.27461264024969e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,22 +31437,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685849</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190042</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250722</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452403</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313206</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327577</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942259</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060347</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745598</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394538</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899111</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790297</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417389</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066291</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
